--- a/results/MultiSpcChangeDf.xlsx
+++ b/results/MultiSpcChangeDf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft8066043.sharepoint.com/sites/GBARMGProjectteam/Shared Documents/General/Proposal Working Folder/Lan Tian/研究生申请/Goldberg教授/JSE project/Alex K. Code/JSE-main/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft8066043.sharepoint.com/sites/GBARMGProjectteam/Shared Documents/General/Proposal Working Folder/Lan Tian/研究生申请/Goldberg教授/JSE project/Alex K. Code/correlation-fraction/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_26AE43CF5DCDA8ADF9EF0DB6792E637ECE60C289" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1B08F21-EA81-4D00-A4EA-67E13AF12BC0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_26AE43CF5DCDA8ADF9EF0DB6792E637ECE60C289" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{386B02AA-C8E5-4D95-A57C-35A4EEFEC7B7}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="39569" yWindow="1803" windowWidth="18031" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,13 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05"/>
+  <cols>
+    <col min="1" max="20" width="31.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
@@ -2406,6 +2409,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035A22CDF218B6149B2B3562294222151" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e6162f4ac8e1c824f5cc835aed334a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b9f7362-b127-4f9c-8979-65899fe02574" xmlns:ns3="a6b60a6d-81d1-471f-a4cc-bdab80f34afc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e288ed4daef55f824ffc23c77731013" ns2:_="" ns3:_="">
     <xsd:import namespace="0b9f7362-b127-4f9c-8979-65899fe02574"/>
@@ -2654,16 +2666,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321EAFFA-8845-4591-AF5C-6DF367D8AD04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6005ABCB-2678-4ED8-AB83-2C0520A3B831}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2680,12 +2691,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321EAFFA-8845-4591-AF5C-6DF367D8AD04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>